--- a/vaadin-spreadsheet/src/test/resources/test_sheets/row_and_column_styles.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/row_and_column_styles.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\GIT\tagetik-2017-spreadsheet-1.4\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -143,6 +148,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -436,26 +444,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -469,26 +475,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="G3" s="1"/>
       <c r="I3" s="5"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1">
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -506,19 +512,19 @@
       <c r="I6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -532,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -546,11 +552,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:11" s="3" customFormat="1">
+    <row r="20" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="22" spans="3:11" s="9" customFormat="1">
+    <row r="22" spans="3:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
     </row>
   </sheetData>
@@ -569,7 +575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -586,7 +592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
